--- a/import/minhchung.xlsx
+++ b/import/minhchung.xlsx
@@ -13597,8 +13597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1675"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A734" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E746" sqref="E746"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41:XFD41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
